--- a/일정.xlsx
+++ b/일정.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\컬러링\Desktop\KJC\BattleMonster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4911085A-C59E-48C1-BB69-E39F7DABBAF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4579306C-2C97-4C3C-9E4C-E33C0376DB62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7BAD22FF-C32C-4555-BB15-3232D9C19A07}"/>
   </bookViews>
@@ -487,35 +487,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -851,7 +823,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>

--- a/일정.xlsx
+++ b/일정.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\컬러링\Desktop\KJC\BattleMonster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\자료\unity20200910\BattleMonster2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4579306C-2C97-4C3C-9E4C-E33C0376DB62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6C00D6-4E29-44F4-8655-286394F416F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7BAD22FF-C32C-4555-BB15-3232D9C19A07}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BAD22FF-C32C-4555-BB15-3232D9C19A07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -823,7 +823,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1395,6 +1395,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>